--- a/data/trans_camb/MCS12_SP_R3-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/MCS12_SP_R3-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>13,88</t>
+          <t>6,07</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>11,56</t>
+          <t>4,23</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>14,25</t>
+          <t>6,35</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>19,3</t>
+          <t>13,89</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>16,76</t>
+          <t>6,83</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>10,28</t>
+          <t>4,62</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>16,53</t>
+          <t>9,96</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>14,12</t>
+          <t>5,54</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>12,31</t>
+          <t>5,57</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,91; 23,19</t>
+          <t>1,89; 9,88</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,43; 20,33</t>
+          <t>0,26; 8,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,04; 24,86</t>
+          <t>2,08; 10,47</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,62; 30,3</t>
+          <t>9,02; 18,55</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,79; 26,8</t>
+          <t>2,27; 11,05</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,04; 17,73</t>
+          <t>0,29; 8,56</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>8,69; 22,87</t>
+          <t>6,84; 12,91</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,44; 20,82</t>
+          <t>2,37; 8,44</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,06; 18,11</t>
+          <t>2,69; 8,42</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>187,45%</t>
+          <t>43,27%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>156,13%</t>
+          <t>30,12%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>192,48%</t>
+          <t>45,26%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>165,23%</t>
+          <t>67,81%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>143,43%</t>
+          <t>33,35%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>88,0%</t>
+          <t>22,56%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>173,69%</t>
+          <t>57,77%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>148,31%</t>
+          <t>32,1%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>129,32%</t>
+          <t>32,31%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>32,02; 547,22</t>
+          <t>10,76; 78,73</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>15,99; 477,47</t>
+          <t>1,3; 66,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>35,97; 558,36</t>
+          <t>12,11; 86,48</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>52,8; 382,67</t>
+          <t>39,62; 99,26</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>38,64; 341,71</t>
+          <t>9,98; 59,84</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>12,12; 246,58</t>
+          <t>1,37; 47,1</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>68,89; 326,72</t>
+          <t>36,61; 80,84</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>55,87; 296,8</t>
+          <t>12,37; 53,05</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>47,5; 270,59</t>
+          <t>13,42; 52,31</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,52</t>
+          <t>3,4</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,76</t>
+          <t>-3,2</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,75</t>
+          <t>-5,14</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>12,82</t>
+          <t>1,93</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>4,88</t>
+          <t>-4,86</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,01</t>
+          <t>-1,75</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>8,66</t>
+          <t>2,68</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>3,83</t>
+          <t>-4,0</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>4,98</t>
+          <t>-4,21</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,3; 9,28</t>
+          <t>-0,02; 7,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 7,02</t>
+          <t>-6,69; 0,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,12; 10,42</t>
+          <t>-13,16; 0,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,39; 17,65</t>
+          <t>-2,36; 6,55</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,86</t>
+          <t>-8,93; -0,7</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 8,71</t>
+          <t>-5,32; 2,11</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,75; 11,9</t>
+          <t>-0,22; 5,47</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,8; 7,25</t>
+          <t>-6,83; -1,29</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,79; 8,17</t>
+          <t>-10,78; -0,42</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>29,42%</t>
+          <t>17,42%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>17,96%</t>
+          <t>-16,42%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>37,45%</t>
+          <t>-26,37%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>57,7%</t>
+          <t>6,5%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>21,97%</t>
+          <t>-16,35%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>18,03%</t>
+          <t>-5,89%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>46,13%</t>
+          <t>10,87%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>20,42%</t>
+          <t>-16,27%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>26,53%</t>
+          <t>-17,1%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,71; 71,63</t>
+          <t>-0,1; 41,84</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-10,12; 53,52</t>
+          <t>-31,15; 3,09</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,68; 77,37</t>
+          <t>-63,24; 0,09</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>30,63; 90,19</t>
+          <t>-7,65; 23,96</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,33; 49,48</t>
+          <t>-28,01; -2,33</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 45,62</t>
+          <t>-16,72; 7,85</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>23,4; 68,26</t>
+          <t>-0,96; 23,42</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,53; 41,89</t>
+          <t>-25,93; -5,42</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>8,2; 46,76</t>
+          <t>-41,36; -1,99</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,4</t>
+          <t>2,94</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-3,2</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-2,22</t>
+          <t>4,23</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,93</t>
+          <t>4,98</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-4,86</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-1,65</t>
+          <t>15,79</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>2,68</t>
+          <t>4,01</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-4,0</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-1,9</t>
+          <t>11,41</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 7,37</t>
+          <t>-1,48; 7,4</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,69; 0,46</t>
+          <t>-3,02; 5,86</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,05; 1,92</t>
+          <t>-0,88; 8,84</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 6,55</t>
+          <t>0,21; 9,67</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,93; -0,7</t>
+          <t>-3,39; 5,53</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,32; 2,22</t>
+          <t>-2,43; 40,69</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 5,47</t>
+          <t>0,93; 7,31</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,83; -1,29</t>
+          <t>-2,14; 4,29</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-4,92; 0,78</t>
+          <t>0,8; 35,44</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>17,42%</t>
+          <t>16,86%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-16,42%</t>
+          <t>6,89%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-11,38%</t>
+          <t>24,27%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>6,5%</t>
+          <t>19,18%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-16,35%</t>
+          <t>2,34%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-5,56%</t>
+          <t>60,81%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>10,87%</t>
+          <t>18,47%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-16,27%</t>
+          <t>4,39%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-7,73%</t>
+          <t>52,54%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 41,84</t>
+          <t>-8,05; 48,14</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-31,15; 3,09</t>
+          <t>-15,15; 40,18</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-29,37; 10,16</t>
+          <t>-4,86; 59,08</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-7,65; 23,96</t>
+          <t>0,71; 41,26</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-28,01; -2,33</t>
+          <t>-12,48; 23,68</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-16,73; 8,18</t>
+          <t>-9,0; 170,27</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 23,42</t>
+          <t>3,89; 36,7</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-25,93; -5,42</t>
+          <t>-9,35; 21,36</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-18,64; 3,39</t>
+          <t>3,54; 169,31</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,94</t>
+          <t>2,77</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,47</t>
+          <t>-2,38</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>4,98</t>
+          <t>5,84</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,61</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>9,89</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>4,01</t>
+          <t>4,39</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>7,8</t>
+          <t>-1,12</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 7,4</t>
+          <t>-1,07; 6,63</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 5,86</t>
+          <t>-3,25; 4,24</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 8,9</t>
+          <t>-6,01; 1,1</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,21; 9,67</t>
+          <t>1,7; 9,91</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 5,53</t>
+          <t>-3,7; 4,31</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 29,36</t>
+          <t>-5,81; 4,02</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,93; 7,31</t>
+          <t>1,61; 7,13</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 4,29</t>
+          <t>-2,13; 3,12</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,63; 24,41</t>
+          <t>-4,24; 1,81</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>16,86%</t>
+          <t>12,58%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>6,89%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>25,69%</t>
+          <t>-10,82%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>19,18%</t>
+          <t>20,83%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>2,34%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>38,08%</t>
+          <t>-0,82%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>18,47%</t>
+          <t>17,46%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>4,39%</t>
+          <t>1,6%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>35,95%</t>
+          <t>-4,43%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-8,05; 48,14</t>
+          <t>-4,51; 32,68</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-15,15; 40,18</t>
+          <t>-13,78; 21,16</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 60,45</t>
+          <t>-24,7; 5,47</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,71; 41,26</t>
+          <t>5,55; 37,58</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-12,48; 23,68</t>
+          <t>-12,47; 16,46</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 121,42</t>
+          <t>-19,74; 15,3</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>3,89; 36,7</t>
+          <t>6,3; 29,81</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-9,35; 21,36</t>
+          <t>-8,0; 13,37</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>7,02; 113,05</t>
+          <t>-15,9; 7,53</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>2,77</t>
+          <t>3,65</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-1,68</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>5,84</t>
+          <t>6,13</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>1,74</t>
+          <t>4,36</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>4,39</t>
+          <t>4,92</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>2,16</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 6,63</t>
+          <t>1,66; 6,01</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 4,24</t>
+          <t>-1,55; 2,23</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-5,39; 1,72</t>
+          <t>-4,5; 2,24</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,7; 9,91</t>
+          <t>3,96; 8,39</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 4,31</t>
+          <t>-1,91; 2,47</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 5,38</t>
+          <t>-0,47; 18,21</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>1,61; 7,13</t>
+          <t>3,36; 6,36</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 3,12</t>
+          <t>-1,29; 1,66</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 2,9</t>
+          <t>-1,14; 8,28</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>12,58%</t>
+          <t>19,58%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>1,25%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-7,64%</t>
+          <t>-1,47%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>20,83%</t>
+          <t>23,08%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>1,75%</t>
+          <t>0,85%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>6,22%</t>
+          <t>16,43%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>17,46%</t>
+          <t>21,74%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>1,6%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>1,16%</t>
+          <t>9,53%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 32,68</t>
+          <t>8,57; 33,9</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-13,78; 21,16</t>
+          <t>-7,85; 12,79</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-22,14; 8,79</t>
+          <t>-23,83; 12,47</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>5,55; 37,58</t>
+          <t>14,14; 32,89</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-12,47; 16,46</t>
+          <t>-6,84; 9,75</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-7,81; 20,36</t>
+          <t>-1,56; 69,55</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>6,3; 29,81</t>
+          <t>14,25; 28,71</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-8,0; 13,37</t>
+          <t>-5,5; 7,57</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-8,95; 12,33</t>
+          <t>-4,96; 37,1</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>3,65</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>0,23</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>1,26</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>6,13</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>0,23</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>3,32</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>4,92</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>0,25</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>2,52</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>1,66; 6,01</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-1,55; 2,23</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-0,91; 3,38</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>3,96; 8,39</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-1,91; 2,47</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>0,53; 10,97</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>3,36; 6,36</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>-1,29; 1,66</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>0,54; 5,9</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>19,58%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>1,22%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>6,77%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>23,08%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>0,85%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>12,51%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>21,74%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>1,11%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>11,14%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>8,57; 33,9</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-7,85; 12,79</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-4,74; 18,81</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>14,14; 32,89</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-6,84; 9,75</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>1,83; 41,03</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>14,25; 28,71</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>-5,5; 7,57</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>2,22; 26,72</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/MCS12_SP_R3-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/MCS12_SP_R3-Habitat-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,89; 9,88</t>
+          <t>2,36; 9,56</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,26; 8,2</t>
+          <t>0,17; 7,96</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,08; 10,47</t>
+          <t>2,58; 10,24</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9,02; 18,55</t>
+          <t>9,04; 18,54</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,27; 11,05</t>
+          <t>2,19; 11,14</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,29; 8,56</t>
+          <t>0,45; 8,51</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,84; 12,91</t>
+          <t>6,73; 12,79</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,37; 8,44</t>
+          <t>2,54; 8,64</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,69; 8,42</t>
+          <t>2,72; 8,36</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,76; 78,73</t>
+          <t>14,44; 75,83</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,3; 66,33</t>
+          <t>1,97; 65,03</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>12,11; 86,48</t>
+          <t>16,0; 84,08</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>39,62; 99,26</t>
+          <t>39,77; 101,03</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>9,98; 59,84</t>
+          <t>9,77; 60,73</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,37; 47,1</t>
+          <t>1,82; 46,48</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>36,61; 80,84</t>
+          <t>36,13; 79,43</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>12,37; 53,05</t>
+          <t>13,72; 54,79</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>13,42; 52,31</t>
+          <t>14,66; 53,66</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 7,37</t>
+          <t>-0,27; 7,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,69; 0,46</t>
+          <t>-6,9; 0,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-13,16; 0,04</t>
+          <t>-12,92; -0,06</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 6,55</t>
+          <t>-2,3; 6,17</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,93; -0,7</t>
+          <t>-9,23; -0,71</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,32; 2,11</t>
+          <t>-5,66; 1,86</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 5,47</t>
+          <t>-0,17; 5,48</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-6,83; -1,29</t>
+          <t>-6,94; -1,58</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-10,78; -0,42</t>
+          <t>-12,08; -0,7</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 41,84</t>
+          <t>-0,68; 43,15</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-31,15; 3,09</t>
+          <t>-31,76; 1,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-63,24; 0,09</t>
+          <t>-63,17; 0,05</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-7,65; 23,96</t>
+          <t>-7,38; 22,87</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-28,01; -2,33</t>
+          <t>-28,42; -2,3</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-16,72; 7,85</t>
+          <t>-17,67; 6,92</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 23,42</t>
+          <t>-0,66; 23,42</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-25,93; -5,42</t>
+          <t>-26,53; -6,83</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-41,36; -1,99</t>
+          <t>-47,39; -2,91</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 7,4</t>
+          <t>-1,22; 7,08</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 5,86</t>
+          <t>-3,2; 5,06</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 8,84</t>
+          <t>-0,36; 8,85</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,21; 9,67</t>
+          <t>-0,15; 9,79</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 5,53</t>
+          <t>-4,14; 5,06</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 40,69</t>
+          <t>-2,24; 42,46</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,93; 7,31</t>
+          <t>0,81; 7,28</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 4,29</t>
+          <t>-2,04; 4,17</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,8; 35,44</t>
+          <t>0,32; 34,09</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-8,05; 48,14</t>
+          <t>-6,47; 46,42</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-15,15; 40,18</t>
+          <t>-15,44; 34,07</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-4,86; 59,08</t>
+          <t>-1,89; 57,89</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,71; 41,26</t>
+          <t>-0,98; 41,33</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-12,48; 23,68</t>
+          <t>-14,8; 21,11</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-9,0; 170,27</t>
+          <t>-8,17; 175,07</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>3,89; 36,7</t>
+          <t>3,78; 37,09</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-9,35; 21,36</t>
+          <t>-8,85; 21,27</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>3,54; 169,31</t>
+          <t>1,39; 161,29</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 6,63</t>
+          <t>-1,48; 6,65</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 4,24</t>
+          <t>-3,49; 4,08</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,01; 1,1</t>
+          <t>-5,9; 1,67</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,7; 9,91</t>
+          <t>1,91; 9,89</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 4,31</t>
+          <t>-3,4; 4,42</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,81; 4,02</t>
+          <t>-6,93; 3,58</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,61; 7,13</t>
+          <t>1,46; 7,21</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 3,12</t>
+          <t>-2,76; 3,12</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,24; 1,81</t>
+          <t>-4,53; 1,43</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 32,68</t>
+          <t>-6,33; 32,53</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-13,78; 21,16</t>
+          <t>-14,91; 20,91</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-24,7; 5,47</t>
+          <t>-25,35; 8,16</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>5,55; 37,58</t>
+          <t>6,58; 38,15</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-12,47; 16,46</t>
+          <t>-11,43; 17,52</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-19,74; 15,3</t>
+          <t>-22,86; 13,39</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>6,3; 29,81</t>
+          <t>5,27; 29,86</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-8,0; 13,37</t>
+          <t>-10,13; 13,02</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-15,9; 7,53</t>
+          <t>-17,7; 5,86</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,66; 6,01</t>
+          <t>1,43; 5,63</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 2,23</t>
+          <t>-1,77; 2,2</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,5; 2,24</t>
+          <t>-4,36; 2,07</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>3,96; 8,39</t>
+          <t>3,88; 8,51</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 2,47</t>
+          <t>-1,99; 2,46</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 18,21</t>
+          <t>-0,6; 17,54</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>3,36; 6,36</t>
+          <t>3,34; 6,43</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 1,66</t>
+          <t>-1,22; 1,66</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 8,28</t>
+          <t>-1,04; 9,47</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>8,57; 33,9</t>
+          <t>7,09; 31,83</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-7,85; 12,79</t>
+          <t>-8,89; 12,62</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-23,83; 12,47</t>
+          <t>-23,33; 11,61</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>14,14; 32,89</t>
+          <t>13,78; 33,52</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-6,84; 9,75</t>
+          <t>-7,27; 9,84</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 69,55</t>
+          <t>-1,74; 71,67</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>14,25; 28,71</t>
+          <t>14,31; 29,76</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-5,5; 7,57</t>
+          <t>-5,15; 7,66</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-4,96; 37,1</t>
+          <t>-4,77; 42,23</t>
         </is>
       </c>
     </row>
